--- a/output/raw_data/all_bond_data.xlsx
+++ b/output/raw_data/all_bond_data.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="486" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="510" uniqueCount="39">
   <si>
     <t>债券类型</t>
   </si>
@@ -70,64 +70,67 @@
     <t>合计</t>
   </si>
   <si>
-    <t>2025-08-04</t>
+    <t>2025-08-29</t>
   </si>
   <si>
-    <t>2025-08-05</t>
+    <t>2025-09-01</t>
   </si>
   <si>
-    <t>2025-08-06</t>
+    <t>2025-09-02</t>
   </si>
   <si>
-    <t>2025-08-07</t>
+    <t>2025-09-03</t>
   </si>
   <si>
-    <t>2025-08-08</t>
+    <t>2025-09-04</t>
   </si>
   <si>
-    <t>2025-08-11</t>
+    <t>2025-09-05</t>
   </si>
   <si>
-    <t>2025-08-12</t>
+    <t>2025-09-08</t>
   </si>
   <si>
-    <t>2025-08-13</t>
+    <t>2025-09-09</t>
   </si>
   <si>
-    <t>2025-08-14</t>
+    <t>2025-09-10</t>
   </si>
   <si>
-    <t>2025-08-15</t>
+    <t>2025-09-11</t>
   </si>
   <si>
-    <t>2025-08-18</t>
+    <t>2025-09-12</t>
   </si>
   <si>
-    <t>2025-08-19</t>
+    <t>2025-09-15</t>
   </si>
   <si>
-    <t>2025-08-20</t>
+    <t>2025-09-16</t>
   </si>
   <si>
-    <t>2025-08-21</t>
+    <t>2025-09-17</t>
   </si>
   <si>
-    <t>2025-08-22</t>
+    <t>2025-09-18</t>
   </si>
   <si>
-    <t>2025-08-25</t>
+    <t>2025-09-19</t>
   </si>
   <si>
-    <t>2025-08-26</t>
+    <t>2025-09-22</t>
   </si>
   <si>
-    <t>2025-08-27</t>
+    <t>2025-09-23</t>
   </si>
   <si>
-    <t>2025-08-28</t>
+    <t>2025-09-24</t>
   </si>
   <si>
-    <t>2025-08-29</t>
+    <t>2025-09-25</t>
+  </si>
+  <si>
+    <t>2025-09-26</t>
   </si>
 </sst>
 </file>
@@ -485,7 +488,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F241"/>
+  <dimension ref="A1:F253"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -516,16 +519,16 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>30293</v>
+        <v>33719</v>
       </c>
       <c r="C2">
-        <v>2625696.02</v>
+        <v>3281076.52</v>
       </c>
       <c r="D2">
-        <v>3277809</v>
+        <v>3949348</v>
       </c>
       <c r="E2">
-        <v>279255450.01</v>
+        <v>344057898.13</v>
       </c>
       <c r="F2" t="s">
         <v>18</v>
@@ -536,16 +539,16 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>186</v>
+        <v>122</v>
       </c>
       <c r="C3">
-        <v>218831.38</v>
+        <v>286340.59</v>
       </c>
       <c r="D3">
-        <v>11160</v>
+        <v>13175</v>
       </c>
       <c r="E3">
-        <v>27159479.08</v>
+        <v>30822223.83</v>
       </c>
       <c r="F3" t="s">
         <v>18</v>
@@ -556,16 +559,16 @@
         <v>8</v>
       </c>
       <c r="B4">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="C4">
-        <v>270.73</v>
+        <v>804.49</v>
       </c>
       <c r="D4">
-        <v>7833</v>
+        <v>8525</v>
       </c>
       <c r="E4">
-        <v>469567.83</v>
+        <v>506102.7</v>
       </c>
       <c r="F4" t="s">
         <v>18</v>
@@ -576,16 +579,16 @@
         <v>9</v>
       </c>
       <c r="B5">
-        <v>4066</v>
+        <v>1782</v>
       </c>
       <c r="C5">
-        <v>4316373.49</v>
+        <v>918928.13</v>
       </c>
       <c r="D5">
-        <v>319451</v>
+        <v>385323</v>
       </c>
       <c r="E5">
-        <v>383273093.84</v>
+        <v>430943024.41</v>
       </c>
       <c r="F5" t="s">
         <v>18</v>
@@ -596,16 +599,16 @@
         <v>10</v>
       </c>
       <c r="B6">
-        <v>2532</v>
+        <v>1690</v>
       </c>
       <c r="C6">
-        <v>3970916.68</v>
+        <v>2251416.35</v>
       </c>
       <c r="D6">
-        <v>335641</v>
+        <v>377686</v>
       </c>
       <c r="E6">
-        <v>482326648.32</v>
+        <v>544957453.01</v>
       </c>
       <c r="F6" t="s">
         <v>18</v>
@@ -616,16 +619,16 @@
         <v>11</v>
       </c>
       <c r="B7">
-        <v>3320784</v>
+        <v>5507352</v>
       </c>
       <c r="C7">
-        <v>3034491.59</v>
+        <v>5250335.28</v>
       </c>
       <c r="D7">
-        <v>409776576</v>
+        <v>497579890</v>
       </c>
       <c r="E7">
-        <v>371452474.02</v>
+        <v>457670946.36</v>
       </c>
       <c r="F7" t="s">
         <v>18</v>
@@ -636,16 +639,16 @@
         <v>12</v>
       </c>
       <c r="B8">
-        <v>458</v>
+        <v>812</v>
       </c>
       <c r="C8">
-        <v>21113.29</v>
+        <v>21257.78</v>
       </c>
       <c r="D8">
-        <v>36297</v>
+        <v>45233</v>
       </c>
       <c r="E8">
-        <v>3216890.32</v>
+        <v>3577600.68</v>
       </c>
       <c r="F8" t="s">
         <v>18</v>
@@ -676,16 +679,16 @@
         <v>14</v>
       </c>
       <c r="B10">
-        <v>125</v>
+        <v>158</v>
       </c>
       <c r="C10">
-        <v>177367.94</v>
+        <v>315692.52</v>
       </c>
       <c r="D10">
-        <v>20064</v>
+        <v>22573</v>
       </c>
       <c r="E10">
-        <v>49218254.87</v>
+        <v>54805717.35</v>
       </c>
       <c r="F10" t="s">
         <v>18</v>
@@ -736,16 +739,16 @@
         <v>17</v>
       </c>
       <c r="B13">
-        <v>3358456</v>
+        <v>5545667</v>
       </c>
       <c r="C13">
-        <v>14365061.12</v>
+        <v>12325851.65</v>
       </c>
       <c r="D13">
-        <v>413784831</v>
+        <v>502381753</v>
       </c>
       <c r="E13">
-        <v>1596371858.29</v>
+        <v>1867340966.47</v>
       </c>
       <c r="F13" t="s">
         <v>18</v>
@@ -756,16 +759,16 @@
         <v>6</v>
       </c>
       <c r="B14">
-        <v>40048</v>
+        <v>47372</v>
       </c>
       <c r="C14">
-        <v>3785363.54</v>
+        <v>5269049.68</v>
       </c>
       <c r="D14">
-        <v>3317857</v>
+        <v>3996720</v>
       </c>
       <c r="E14">
-        <v>283040813.55</v>
+        <v>349326947.81</v>
       </c>
       <c r="F14" t="s">
         <v>19</v>
@@ -776,16 +779,16 @@
         <v>7</v>
       </c>
       <c r="B15">
-        <v>167</v>
+        <v>74</v>
       </c>
       <c r="C15">
-        <v>67307.75999999999</v>
+        <v>114834.04</v>
       </c>
       <c r="D15">
-        <v>11327</v>
+        <v>13249</v>
       </c>
       <c r="E15">
-        <v>27226786.85</v>
+        <v>30937057.87</v>
       </c>
       <c r="F15" t="s">
         <v>19</v>
@@ -796,16 +799,16 @@
         <v>8</v>
       </c>
       <c r="B16">
-        <v>11</v>
+        <v>79</v>
       </c>
       <c r="C16">
-        <v>217.05</v>
+        <v>6076.99</v>
       </c>
       <c r="D16">
-        <v>7844</v>
+        <v>8604</v>
       </c>
       <c r="E16">
-        <v>469784.88</v>
+        <v>512179.7</v>
       </c>
       <c r="F16" t="s">
         <v>19</v>
@@ -816,16 +819,16 @@
         <v>9</v>
       </c>
       <c r="B17">
-        <v>3451</v>
+        <v>5968</v>
       </c>
       <c r="C17">
-        <v>2183745.56</v>
+        <v>3462985.64</v>
       </c>
       <c r="D17">
-        <v>322902</v>
+        <v>391291</v>
       </c>
       <c r="E17">
-        <v>385456839.39</v>
+        <v>434406010.05</v>
       </c>
       <c r="F17" t="s">
         <v>19</v>
@@ -836,16 +839,16 @@
         <v>10</v>
       </c>
       <c r="B18">
-        <v>2480</v>
+        <v>1745</v>
       </c>
       <c r="C18">
-        <v>3536256.41</v>
+        <v>2495606.9</v>
       </c>
       <c r="D18">
-        <v>338121</v>
+        <v>379431</v>
       </c>
       <c r="E18">
-        <v>485862904.73</v>
+        <v>547453059.91</v>
       </c>
       <c r="F18" t="s">
         <v>19</v>
@@ -856,16 +859,16 @@
         <v>11</v>
       </c>
       <c r="B19">
-        <v>3291872</v>
+        <v>5085390</v>
       </c>
       <c r="C19">
-        <v>3132863.68</v>
+        <v>4740838.3</v>
       </c>
       <c r="D19">
-        <v>413068448</v>
+        <v>502665280</v>
       </c>
       <c r="E19">
-        <v>374585337.69</v>
+        <v>462411784.66</v>
       </c>
       <c r="F19" t="s">
         <v>19</v>
@@ -876,16 +879,16 @@
         <v>12</v>
       </c>
       <c r="B20">
-        <v>464</v>
+        <v>512</v>
       </c>
       <c r="C20">
-        <v>32987.85</v>
+        <v>18435.04</v>
       </c>
       <c r="D20">
-        <v>36761</v>
+        <v>45745</v>
       </c>
       <c r="E20">
-        <v>3249878.17</v>
+        <v>3596035.72</v>
       </c>
       <c r="F20" t="s">
         <v>19</v>
@@ -916,16 +919,16 @@
         <v>14</v>
       </c>
       <c r="B22">
-        <v>169</v>
+        <v>134</v>
       </c>
       <c r="C22">
-        <v>367289.52</v>
+        <v>231546.44</v>
       </c>
       <c r="D22">
-        <v>20233</v>
+        <v>22707</v>
       </c>
       <c r="E22">
-        <v>49585544.39</v>
+        <v>55037263.78</v>
       </c>
       <c r="F22" t="s">
         <v>19</v>
@@ -976,16 +979,16 @@
         <v>17</v>
       </c>
       <c r="B25">
-        <v>3338662</v>
+        <v>5141274</v>
       </c>
       <c r="C25">
-        <v>13106031.37</v>
+        <v>16339373.03</v>
       </c>
       <c r="D25">
-        <v>417123493</v>
+        <v>507523027</v>
       </c>
       <c r="E25">
-        <v>1609477889.66</v>
+        <v>1883680339.5</v>
       </c>
       <c r="F25" t="s">
         <v>19</v>
@@ -996,16 +999,16 @@
         <v>6</v>
       </c>
       <c r="B26">
-        <v>36164</v>
+        <v>44235</v>
       </c>
       <c r="C26">
-        <v>3551103.68</v>
+        <v>5333306.03</v>
       </c>
       <c r="D26">
-        <v>3354021</v>
+        <v>4040955</v>
       </c>
       <c r="E26">
-        <v>286591917.24</v>
+        <v>354660253.84</v>
       </c>
       <c r="F26" t="s">
         <v>20</v>
@@ -1016,16 +1019,16 @@
         <v>7</v>
       </c>
       <c r="B27">
-        <v>109</v>
+        <v>49</v>
       </c>
       <c r="C27">
-        <v>108241.14</v>
+        <v>170141.34</v>
       </c>
       <c r="D27">
-        <v>11436</v>
+        <v>13298</v>
       </c>
       <c r="E27">
-        <v>27335027.98</v>
+        <v>31107199.21</v>
       </c>
       <c r="F27" t="s">
         <v>20</v>
@@ -1036,16 +1039,16 @@
         <v>8</v>
       </c>
       <c r="B28">
-        <v>13</v>
+        <v>342</v>
       </c>
       <c r="C28">
-        <v>878.16</v>
+        <v>32753.63</v>
       </c>
       <c r="D28">
-        <v>7857</v>
+        <v>8946</v>
       </c>
       <c r="E28">
-        <v>470663.04</v>
+        <v>544933.33</v>
       </c>
       <c r="F28" t="s">
         <v>20</v>
@@ -1056,16 +1059,16 @@
         <v>9</v>
       </c>
       <c r="B29">
-        <v>4339</v>
+        <v>3178</v>
       </c>
       <c r="C29">
-        <v>2961120.17</v>
+        <v>2609443.75</v>
       </c>
       <c r="D29">
-        <v>327241</v>
+        <v>394469</v>
       </c>
       <c r="E29">
-        <v>388417959.56</v>
+        <v>437015453.8</v>
       </c>
       <c r="F29" t="s">
         <v>20</v>
@@ -1076,16 +1079,16 @@
         <v>10</v>
       </c>
       <c r="B30">
-        <v>2647</v>
+        <v>2017</v>
       </c>
       <c r="C30">
-        <v>4039309.66</v>
+        <v>2843795.32</v>
       </c>
       <c r="D30">
-        <v>340768</v>
+        <v>381448</v>
       </c>
       <c r="E30">
-        <v>489902214.39</v>
+        <v>550296855.22</v>
       </c>
       <c r="F30" t="s">
         <v>20</v>
@@ -1096,16 +1099,16 @@
         <v>11</v>
       </c>
       <c r="B31">
-        <v>4074071</v>
+        <v>6198532</v>
       </c>
       <c r="C31">
-        <v>3896958.11</v>
+        <v>5562334.99</v>
       </c>
       <c r="D31">
-        <v>417142519</v>
+        <v>508863812</v>
       </c>
       <c r="E31">
-        <v>378482295.81</v>
+        <v>467974119.65</v>
       </c>
       <c r="F31" t="s">
         <v>20</v>
@@ -1116,16 +1119,16 @@
         <v>12</v>
       </c>
       <c r="B32">
-        <v>345</v>
+        <v>522</v>
       </c>
       <c r="C32">
-        <v>14057.98</v>
+        <v>15184.53</v>
       </c>
       <c r="D32">
-        <v>37106</v>
+        <v>46267</v>
       </c>
       <c r="E32">
-        <v>3263936.15</v>
+        <v>3611220.26</v>
       </c>
       <c r="F32" t="s">
         <v>20</v>
@@ -1156,16 +1159,16 @@
         <v>14</v>
       </c>
       <c r="B34">
-        <v>113</v>
+        <v>186</v>
       </c>
       <c r="C34">
-        <v>217714.68</v>
+        <v>251611.79</v>
       </c>
       <c r="D34">
-        <v>20346</v>
+        <v>22893</v>
       </c>
       <c r="E34">
-        <v>49803259.08</v>
+        <v>55288875.57</v>
       </c>
       <c r="F34" t="s">
         <v>20</v>
@@ -1216,16 +1219,16 @@
         <v>17</v>
       </c>
       <c r="B37">
-        <v>4117801</v>
+        <v>6249061</v>
       </c>
       <c r="C37">
-        <v>14789383.59</v>
+        <v>16818571.38</v>
       </c>
       <c r="D37">
-        <v>421241294</v>
+        <v>513772088</v>
       </c>
       <c r="E37">
-        <v>1624267273.25</v>
+        <v>1900498910.88</v>
       </c>
       <c r="F37" t="s">
         <v>20</v>
@@ -1236,16 +1239,16 @@
         <v>6</v>
       </c>
       <c r="B38">
-        <v>35590</v>
+        <v>55019</v>
       </c>
       <c r="C38">
-        <v>3274112.43</v>
+        <v>5871188.88</v>
       </c>
       <c r="D38">
-        <v>3389611</v>
+        <v>4095974</v>
       </c>
       <c r="E38">
-        <v>289866029.67</v>
+        <v>360531442.72</v>
       </c>
       <c r="F38" t="s">
         <v>21</v>
@@ -1256,16 +1259,16 @@
         <v>7</v>
       </c>
       <c r="B39">
-        <v>149</v>
+        <v>96</v>
       </c>
       <c r="C39">
-        <v>92205.50999999999</v>
+        <v>260783.47</v>
       </c>
       <c r="D39">
-        <v>11585</v>
+        <v>13394</v>
       </c>
       <c r="E39">
-        <v>27427233.49</v>
+        <v>31367982.68</v>
       </c>
       <c r="F39" t="s">
         <v>21</v>
@@ -1276,16 +1279,16 @@
         <v>8</v>
       </c>
       <c r="B40">
-        <v>87</v>
+        <v>394</v>
       </c>
       <c r="C40">
-        <v>5802.68</v>
+        <v>35792.59</v>
       </c>
       <c r="D40">
-        <v>7944</v>
+        <v>9340</v>
       </c>
       <c r="E40">
-        <v>476465.72</v>
+        <v>580725.92</v>
       </c>
       <c r="F40" t="s">
         <v>21</v>
@@ -1296,16 +1299,16 @@
         <v>9</v>
       </c>
       <c r="B41">
-        <v>6594</v>
+        <v>2484</v>
       </c>
       <c r="C41">
-        <v>3024495.93</v>
+        <v>1918959.46</v>
       </c>
       <c r="D41">
-        <v>333835</v>
+        <v>396953</v>
       </c>
       <c r="E41">
-        <v>391442455.49</v>
+        <v>438934413.26</v>
       </c>
       <c r="F41" t="s">
         <v>21</v>
@@ -1316,16 +1319,16 @@
         <v>10</v>
       </c>
       <c r="B42">
-        <v>2693</v>
+        <v>1823</v>
       </c>
       <c r="C42">
-        <v>3869383.27</v>
+        <v>2381211.97</v>
       </c>
       <c r="D42">
-        <v>343461</v>
+        <v>383271</v>
       </c>
       <c r="E42">
-        <v>493771597.66</v>
+        <v>552678067.2</v>
       </c>
       <c r="F42" t="s">
         <v>21</v>
@@ -1336,16 +1339,16 @@
         <v>11</v>
       </c>
       <c r="B43">
-        <v>3933897</v>
+        <v>4905695</v>
       </c>
       <c r="C43">
-        <v>3534132.22</v>
+        <v>4554858.82</v>
       </c>
       <c r="D43">
-        <v>421076416</v>
+        <v>513769507</v>
       </c>
       <c r="E43">
-        <v>382016428.03</v>
+        <v>472528978.47</v>
       </c>
       <c r="F43" t="s">
         <v>21</v>
@@ -1356,16 +1359,16 @@
         <v>12</v>
       </c>
       <c r="B44">
-        <v>364</v>
+        <v>223</v>
       </c>
       <c r="C44">
-        <v>13970.34</v>
+        <v>3744.12</v>
       </c>
       <c r="D44">
-        <v>37470</v>
+        <v>46490</v>
       </c>
       <c r="E44">
-        <v>3277906.49</v>
+        <v>3614964.38</v>
       </c>
       <c r="F44" t="s">
         <v>21</v>
@@ -1396,16 +1399,16 @@
         <v>14</v>
       </c>
       <c r="B46">
-        <v>119</v>
+        <v>88</v>
       </c>
       <c r="C46">
-        <v>278978.28</v>
+        <v>161010.35</v>
       </c>
       <c r="D46">
-        <v>20465</v>
+        <v>22981</v>
       </c>
       <c r="E46">
-        <v>50082237.35</v>
+        <v>55449885.92</v>
       </c>
       <c r="F46" t="s">
         <v>21</v>
@@ -1456,16 +1459,16 @@
         <v>17</v>
       </c>
       <c r="B49">
-        <v>3979493</v>
+        <v>4965822</v>
       </c>
       <c r="C49">
-        <v>14093080.66</v>
+        <v>15187549.66</v>
       </c>
       <c r="D49">
-        <v>425220787</v>
+        <v>518737910</v>
       </c>
       <c r="E49">
-        <v>1638360353.91</v>
+        <v>1915686460.54</v>
       </c>
       <c r="F49" t="s">
         <v>21</v>
@@ -1476,16 +1479,16 @@
         <v>6</v>
       </c>
       <c r="B50">
-        <v>21454</v>
+        <v>56320</v>
       </c>
       <c r="C50">
-        <v>1962242.62</v>
+        <v>5954156.47</v>
       </c>
       <c r="D50">
-        <v>3411065</v>
+        <v>4152294</v>
       </c>
       <c r="E50">
-        <v>291828272.28</v>
+        <v>366485599.19</v>
       </c>
       <c r="F50" t="s">
         <v>22</v>
@@ -1496,16 +1499,16 @@
         <v>7</v>
       </c>
       <c r="B51">
-        <v>118</v>
+        <v>148</v>
       </c>
       <c r="C51">
-        <v>120015.84</v>
+        <v>150819.88</v>
       </c>
       <c r="D51">
-        <v>11703</v>
+        <v>13542</v>
       </c>
       <c r="E51">
-        <v>27547249.34</v>
+        <v>31518802.56</v>
       </c>
       <c r="F51" t="s">
         <v>22</v>
@@ -1516,16 +1519,16 @@
         <v>8</v>
       </c>
       <c r="B52">
-        <v>29</v>
+        <v>323</v>
       </c>
       <c r="C52">
-        <v>1424.29</v>
+        <v>29435.21</v>
       </c>
       <c r="D52">
-        <v>7973</v>
+        <v>9663</v>
       </c>
       <c r="E52">
-        <v>477890.01</v>
+        <v>610161.12</v>
       </c>
       <c r="F52" t="s">
         <v>22</v>
@@ -1536,16 +1539,16 @@
         <v>9</v>
       </c>
       <c r="B53">
-        <v>4656</v>
+        <v>3113</v>
       </c>
       <c r="C53">
-        <v>1304029.45</v>
+        <v>3292266.36</v>
       </c>
       <c r="D53">
-        <v>338491</v>
+        <v>400066</v>
       </c>
       <c r="E53">
-        <v>392746484.94</v>
+        <v>442226679.62</v>
       </c>
       <c r="F53" t="s">
         <v>22</v>
@@ -1556,16 +1559,16 @@
         <v>10</v>
       </c>
       <c r="B54">
-        <v>1690</v>
+        <v>2609</v>
       </c>
       <c r="C54">
-        <v>2451069.61</v>
+        <v>3895290.67</v>
       </c>
       <c r="D54">
-        <v>345151</v>
+        <v>385880</v>
       </c>
       <c r="E54">
-        <v>496222667.27</v>
+        <v>556573357.86</v>
       </c>
       <c r="F54" t="s">
         <v>22</v>
@@ -1576,16 +1579,16 @@
         <v>11</v>
       </c>
       <c r="B55">
-        <v>3741126</v>
+        <v>4748558</v>
       </c>
       <c r="C55">
-        <v>3757399.58</v>
+        <v>4291735.24</v>
       </c>
       <c r="D55">
-        <v>424817542</v>
+        <v>518518065</v>
       </c>
       <c r="E55">
-        <v>385773827.61</v>
+        <v>476820713.71</v>
       </c>
       <c r="F55" t="s">
         <v>22</v>
@@ -1596,16 +1599,16 @@
         <v>12</v>
       </c>
       <c r="B56">
-        <v>576</v>
+        <v>262</v>
       </c>
       <c r="C56">
-        <v>8462.549999999999</v>
+        <v>8281.790000000001</v>
       </c>
       <c r="D56">
-        <v>38046</v>
+        <v>46752</v>
       </c>
       <c r="E56">
-        <v>3286369.04</v>
+        <v>3623246.17</v>
       </c>
       <c r="F56" t="s">
         <v>22</v>
@@ -1636,16 +1639,16 @@
         <v>14</v>
       </c>
       <c r="B58">
-        <v>97</v>
+        <v>185</v>
       </c>
       <c r="C58">
-        <v>220241.97</v>
+        <v>281246.09</v>
       </c>
       <c r="D58">
-        <v>20562</v>
+        <v>23166</v>
       </c>
       <c r="E58">
-        <v>50302479.32</v>
+        <v>55731132</v>
       </c>
       <c r="F58" t="s">
         <v>22</v>
@@ -1696,16 +1699,16 @@
         <v>17</v>
       </c>
       <c r="B61">
-        <v>3769746</v>
+        <v>4811518</v>
       </c>
       <c r="C61">
-        <v>9824885.91</v>
+        <v>17903231.7</v>
       </c>
       <c r="D61">
-        <v>428990533</v>
+        <v>523549428</v>
       </c>
       <c r="E61">
-        <v>1648185239.82</v>
+        <v>1933589692.24</v>
       </c>
       <c r="F61" t="s">
         <v>22</v>
@@ -1716,16 +1719,16 @@
         <v>6</v>
       </c>
       <c r="B62">
-        <v>33425</v>
+        <v>58985</v>
       </c>
       <c r="C62">
-        <v>2995547.9</v>
+        <v>6144251.14</v>
       </c>
       <c r="D62">
-        <v>3444490</v>
+        <v>4211279</v>
       </c>
       <c r="E62">
-        <v>294823820.18</v>
+        <v>372629850.33</v>
       </c>
       <c r="F62" t="s">
         <v>23</v>
@@ -1736,16 +1739,16 @@
         <v>7</v>
       </c>
       <c r="B63">
-        <v>164</v>
+        <v>102</v>
       </c>
       <c r="C63">
-        <v>144451.74</v>
+        <v>72165.87</v>
       </c>
       <c r="D63">
-        <v>11867</v>
+        <v>13644</v>
       </c>
       <c r="E63">
-        <v>27691701.07</v>
+        <v>31590968.44</v>
       </c>
       <c r="F63" t="s">
         <v>23</v>
@@ -1756,16 +1759,16 @@
         <v>8</v>
       </c>
       <c r="B64">
-        <v>22</v>
+        <v>89</v>
       </c>
       <c r="C64">
-        <v>486.87</v>
+        <v>6401.81</v>
       </c>
       <c r="D64">
-        <v>7995</v>
+        <v>9752</v>
       </c>
       <c r="E64">
-        <v>478376.88</v>
+        <v>616562.9300000001</v>
       </c>
       <c r="F64" t="s">
         <v>23</v>
@@ -1776,16 +1779,16 @@
         <v>9</v>
       </c>
       <c r="B65">
-        <v>4521</v>
+        <v>2731</v>
       </c>
       <c r="C65">
-        <v>4069802.93</v>
+        <v>1389407.64</v>
       </c>
       <c r="D65">
-        <v>343012</v>
+        <v>402797</v>
       </c>
       <c r="E65">
-        <v>396816287.86</v>
+        <v>443616087.26</v>
       </c>
       <c r="F65" t="s">
         <v>23</v>
@@ -1796,16 +1799,16 @@
         <v>10</v>
       </c>
       <c r="B66">
-        <v>2253</v>
+        <v>1870</v>
       </c>
       <c r="C66">
-        <v>3228690.35</v>
+        <v>2663809.8</v>
       </c>
       <c r="D66">
-        <v>347404</v>
+        <v>387750</v>
       </c>
       <c r="E66">
-        <v>499451357.62</v>
+        <v>559237167.66</v>
       </c>
       <c r="F66" t="s">
         <v>23</v>
@@ -1816,16 +1819,16 @@
         <v>11</v>
       </c>
       <c r="B67">
-        <v>3637696</v>
+        <v>4388861</v>
       </c>
       <c r="C67">
-        <v>3427215.36</v>
+        <v>3983013.26</v>
       </c>
       <c r="D67">
-        <v>428455238</v>
+        <v>522906926</v>
       </c>
       <c r="E67">
-        <v>389201042.98</v>
+        <v>480803726.97</v>
       </c>
       <c r="F67" t="s">
         <v>23</v>
@@ -1836,16 +1839,16 @@
         <v>12</v>
       </c>
       <c r="B68">
-        <v>344</v>
+        <v>396</v>
       </c>
       <c r="C68">
-        <v>26001.19</v>
+        <v>10294.68</v>
       </c>
       <c r="D68">
-        <v>38390</v>
+        <v>47148</v>
       </c>
       <c r="E68">
-        <v>3312370.24</v>
+        <v>3633540.85</v>
       </c>
       <c r="F68" t="s">
         <v>23</v>
@@ -1876,16 +1879,16 @@
         <v>14</v>
       </c>
       <c r="B70">
-        <v>98</v>
+        <v>146</v>
       </c>
       <c r="C70">
-        <v>241452.59</v>
+        <v>266378.68</v>
       </c>
       <c r="D70">
-        <v>20660</v>
+        <v>23312</v>
       </c>
       <c r="E70">
-        <v>50543931.91</v>
+        <v>55997510.68</v>
       </c>
       <c r="F70" t="s">
         <v>23</v>
@@ -1936,16 +1939,16 @@
         <v>17</v>
       </c>
       <c r="B73">
-        <v>3678523</v>
+        <v>4453180</v>
       </c>
       <c r="C73">
-        <v>14133648.93</v>
+        <v>14535722.88</v>
       </c>
       <c r="D73">
-        <v>432669056</v>
+        <v>528002608</v>
       </c>
       <c r="E73">
-        <v>1662318888.75</v>
+        <v>1948125415.12</v>
       </c>
       <c r="F73" t="s">
         <v>23</v>
@@ -1956,16 +1959,16 @@
         <v>6</v>
       </c>
       <c r="B74">
-        <v>26415</v>
+        <v>49112</v>
       </c>
       <c r="C74">
-        <v>2300161.29</v>
+        <v>5223327.63</v>
       </c>
       <c r="D74">
-        <v>3470905</v>
+        <v>4260391</v>
       </c>
       <c r="E74">
-        <v>297123981.47</v>
+        <v>377853177.97</v>
       </c>
       <c r="F74" t="s">
         <v>24</v>
@@ -1976,16 +1979,16 @@
         <v>7</v>
       </c>
       <c r="B75">
-        <v>108</v>
+        <v>72</v>
       </c>
       <c r="C75">
-        <v>160727.17</v>
+        <v>65310.29</v>
       </c>
       <c r="D75">
-        <v>11975</v>
+        <v>13716</v>
       </c>
       <c r="E75">
-        <v>27852428.24</v>
+        <v>31656278.72</v>
       </c>
       <c r="F75" t="s">
         <v>24</v>
@@ -1996,16 +1999,16 @@
         <v>8</v>
       </c>
       <c r="B76">
-        <v>17</v>
+        <v>107</v>
       </c>
       <c r="C76">
-        <v>437.11</v>
+        <v>9262.18</v>
       </c>
       <c r="D76">
-        <v>8012</v>
+        <v>9859</v>
       </c>
       <c r="E76">
-        <v>478813.99</v>
+        <v>625825.11</v>
       </c>
       <c r="F76" t="s">
         <v>24</v>
@@ -2016,16 +2019,16 @@
         <v>9</v>
       </c>
       <c r="B77">
-        <v>3775</v>
+        <v>3458</v>
       </c>
       <c r="C77">
-        <v>2119476.68</v>
+        <v>3770442.44</v>
       </c>
       <c r="D77">
-        <v>346787</v>
+        <v>406255</v>
       </c>
       <c r="E77">
-        <v>398935764.54</v>
+        <v>447386529.7</v>
       </c>
       <c r="F77" t="s">
         <v>24</v>
@@ -2036,16 +2039,16 @@
         <v>10</v>
       </c>
       <c r="B78">
-        <v>2131</v>
+        <v>2267</v>
       </c>
       <c r="C78">
-        <v>3203370.54</v>
+        <v>3532037.08</v>
       </c>
       <c r="D78">
-        <v>349535</v>
+        <v>390017</v>
       </c>
       <c r="E78">
-        <v>502654728.16</v>
+        <v>562769204.74</v>
       </c>
       <c r="F78" t="s">
         <v>24</v>
@@ -2056,16 +2059,16 @@
         <v>11</v>
       </c>
       <c r="B79">
-        <v>3974564</v>
+        <v>4408031</v>
       </c>
       <c r="C79">
-        <v>3695746.81</v>
+        <v>4039249.25</v>
       </c>
       <c r="D79">
-        <v>432429802</v>
+        <v>527314957</v>
       </c>
       <c r="E79">
-        <v>392896789.78</v>
+        <v>484842976.22</v>
       </c>
       <c r="F79" t="s">
         <v>24</v>
@@ -2076,16 +2079,16 @@
         <v>12</v>
       </c>
       <c r="B80">
-        <v>489</v>
+        <v>229</v>
       </c>
       <c r="C80">
-        <v>23925.32</v>
+        <v>11474.41</v>
       </c>
       <c r="D80">
-        <v>38879</v>
+        <v>47377</v>
       </c>
       <c r="E80">
-        <v>3336295.56</v>
+        <v>3645015.26</v>
       </c>
       <c r="F80" t="s">
         <v>24</v>
@@ -2119,13 +2122,13 @@
         <v>108</v>
       </c>
       <c r="C82">
-        <v>201976.1</v>
+        <v>312810.96</v>
       </c>
       <c r="D82">
-        <v>20768</v>
+        <v>23420</v>
       </c>
       <c r="E82">
-        <v>50745908.01</v>
+        <v>56310321.64</v>
       </c>
       <c r="F82" t="s">
         <v>24</v>
@@ -2176,16 +2179,16 @@
         <v>17</v>
       </c>
       <c r="B85">
-        <v>4007607</v>
+        <v>4463384</v>
       </c>
       <c r="C85">
-        <v>11705821.01</v>
+        <v>16963914.24</v>
       </c>
       <c r="D85">
-        <v>436676663</v>
+        <v>532465992</v>
       </c>
       <c r="E85">
-        <v>1674024709.75</v>
+        <v>1965089329.36</v>
       </c>
       <c r="F85" t="s">
         <v>24</v>
@@ -2196,16 +2199,16 @@
         <v>6</v>
       </c>
       <c r="B86">
-        <v>31108</v>
+        <v>35603</v>
       </c>
       <c r="C86">
-        <v>3050558.15</v>
+        <v>3640204.54</v>
       </c>
       <c r="D86">
-        <v>3502013</v>
+        <v>4295994</v>
       </c>
       <c r="E86">
-        <v>300174539.62</v>
+        <v>381493382.5</v>
       </c>
       <c r="F86" t="s">
         <v>25</v>
@@ -2216,16 +2219,16 @@
         <v>7</v>
       </c>
       <c r="B87">
-        <v>170</v>
+        <v>74</v>
       </c>
       <c r="C87">
-        <v>320867.16</v>
+        <v>258434.41</v>
       </c>
       <c r="D87">
-        <v>12145</v>
+        <v>13790</v>
       </c>
       <c r="E87">
-        <v>28173295.4</v>
+        <v>31914713.13</v>
       </c>
       <c r="F87" t="s">
         <v>25</v>
@@ -2236,16 +2239,16 @@
         <v>8</v>
       </c>
       <c r="B88">
-        <v>37</v>
+        <v>390</v>
       </c>
       <c r="C88">
-        <v>2126.19</v>
+        <v>34953.84</v>
       </c>
       <c r="D88">
-        <v>8049</v>
+        <v>10249</v>
       </c>
       <c r="E88">
-        <v>480940.18</v>
+        <v>660778.95</v>
       </c>
       <c r="F88" t="s">
         <v>25</v>
@@ -2256,16 +2259,16 @@
         <v>9</v>
       </c>
       <c r="B89">
-        <v>2737</v>
+        <v>3368</v>
       </c>
       <c r="C89">
-        <v>2225109.91</v>
+        <v>2893940.33</v>
       </c>
       <c r="D89">
-        <v>349524</v>
+        <v>409623</v>
       </c>
       <c r="E89">
-        <v>401160874.45</v>
+        <v>450280470.02</v>
       </c>
       <c r="F89" t="s">
         <v>25</v>
@@ -2276,16 +2279,16 @@
         <v>10</v>
       </c>
       <c r="B90">
-        <v>2143</v>
+        <v>2203</v>
       </c>
       <c r="C90">
-        <v>2753869.09</v>
+        <v>3292118.13</v>
       </c>
       <c r="D90">
-        <v>351678</v>
+        <v>392220</v>
       </c>
       <c r="E90">
-        <v>505408597.25</v>
+        <v>566061322.87</v>
       </c>
       <c r="F90" t="s">
         <v>25</v>
@@ -2296,16 +2299,16 @@
         <v>11</v>
       </c>
       <c r="B91">
-        <v>5127952</v>
+        <v>4447050</v>
       </c>
       <c r="C91">
-        <v>5244515.92</v>
+        <v>3986719.36</v>
       </c>
       <c r="D91">
-        <v>437557754</v>
+        <v>531762007</v>
       </c>
       <c r="E91">
-        <v>398141305.7</v>
+        <v>488829695.58</v>
       </c>
       <c r="F91" t="s">
         <v>25</v>
@@ -2316,16 +2319,16 @@
         <v>12</v>
       </c>
       <c r="B92">
-        <v>388</v>
+        <v>508</v>
       </c>
       <c r="C92">
-        <v>11743.48</v>
+        <v>17928.51</v>
       </c>
       <c r="D92">
-        <v>39267</v>
+        <v>47885</v>
       </c>
       <c r="E92">
-        <v>3348039.03</v>
+        <v>3662943.76</v>
       </c>
       <c r="F92" t="s">
         <v>25</v>
@@ -2356,16 +2359,16 @@
         <v>14</v>
       </c>
       <c r="B94">
-        <v>177</v>
+        <v>74</v>
       </c>
       <c r="C94">
-        <v>312710.47</v>
+        <v>190977.41</v>
       </c>
       <c r="D94">
-        <v>20945</v>
+        <v>23494</v>
       </c>
       <c r="E94">
-        <v>51058618.49</v>
+        <v>56501299.05</v>
       </c>
       <c r="F94" t="s">
         <v>25</v>
@@ -2416,16 +2419,16 @@
         <v>17</v>
       </c>
       <c r="B97">
-        <v>5164712</v>
+        <v>4489270</v>
       </c>
       <c r="C97">
-        <v>13921500.37</v>
+        <v>14315276.51</v>
       </c>
       <c r="D97">
-        <v>441841375</v>
+        <v>536955262</v>
       </c>
       <c r="E97">
-        <v>1687946210.12</v>
+        <v>1979404605.87</v>
       </c>
       <c r="F97" t="s">
         <v>25</v>
@@ -2436,16 +2439,16 @@
         <v>6</v>
       </c>
       <c r="B98">
-        <v>32928</v>
+        <v>38269</v>
       </c>
       <c r="C98">
-        <v>2894302.95</v>
+        <v>3542366.17</v>
       </c>
       <c r="D98">
-        <v>3534941</v>
+        <v>4334263</v>
       </c>
       <c r="E98">
-        <v>303068842.57</v>
+        <v>385035748.67</v>
       </c>
       <c r="F98" t="s">
         <v>26</v>
@@ -2456,16 +2459,16 @@
         <v>7</v>
       </c>
       <c r="B99">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="C99">
-        <v>133294.92</v>
+        <v>149297.35</v>
       </c>
       <c r="D99">
-        <v>12325</v>
+        <v>13975</v>
       </c>
       <c r="E99">
-        <v>28306590.32</v>
+        <v>32064010.48</v>
       </c>
       <c r="F99" t="s">
         <v>26</v>
@@ -2476,16 +2479,16 @@
         <v>8</v>
       </c>
       <c r="B100">
-        <v>35</v>
+        <v>383</v>
       </c>
       <c r="C100">
-        <v>1394.57</v>
+        <v>33763.95</v>
       </c>
       <c r="D100">
-        <v>8084</v>
+        <v>10632</v>
       </c>
       <c r="E100">
-        <v>482334.75</v>
+        <v>694542.9</v>
       </c>
       <c r="F100" t="s">
         <v>26</v>
@@ -2496,16 +2499,16 @@
         <v>9</v>
       </c>
       <c r="B101">
-        <v>3073</v>
+        <v>4037</v>
       </c>
       <c r="C101">
-        <v>2607241.44</v>
+        <v>3538359.73</v>
       </c>
       <c r="D101">
-        <v>352597</v>
+        <v>413660</v>
       </c>
       <c r="E101">
-        <v>403768115.89</v>
+        <v>453818829.75</v>
       </c>
       <c r="F101" t="s">
         <v>26</v>
@@ -2516,16 +2519,16 @@
         <v>10</v>
       </c>
       <c r="B102">
-        <v>2062</v>
+        <v>2042</v>
       </c>
       <c r="C102">
-        <v>3162994.29</v>
+        <v>2832542.45</v>
       </c>
       <c r="D102">
-        <v>353740</v>
+        <v>394262</v>
       </c>
       <c r="E102">
-        <v>508571591.53</v>
+        <v>568893865.3200001</v>
       </c>
       <c r="F102" t="s">
         <v>26</v>
@@ -2536,16 +2539,16 @@
         <v>11</v>
       </c>
       <c r="B103">
-        <v>4710949</v>
+        <v>4216240</v>
       </c>
       <c r="C103">
-        <v>4581438.5</v>
+        <v>4019523.14</v>
       </c>
       <c r="D103">
-        <v>442268703</v>
+        <v>535978247</v>
       </c>
       <c r="E103">
-        <v>402722744.2</v>
+        <v>492849218.72</v>
       </c>
       <c r="F103" t="s">
         <v>26</v>
@@ -2556,16 +2559,16 @@
         <v>12</v>
       </c>
       <c r="B104">
-        <v>578</v>
+        <v>211</v>
       </c>
       <c r="C104">
-        <v>19580.02</v>
+        <v>11768.04</v>
       </c>
       <c r="D104">
-        <v>39845</v>
+        <v>48096</v>
       </c>
       <c r="E104">
-        <v>3367619.05</v>
+        <v>3674711.8</v>
       </c>
       <c r="F104" t="s">
         <v>26</v>
@@ -2596,16 +2599,16 @@
         <v>14</v>
       </c>
       <c r="B106">
-        <v>159</v>
+        <v>150</v>
       </c>
       <c r="C106">
-        <v>291894.67</v>
+        <v>364864.9</v>
       </c>
       <c r="D106">
-        <v>21104</v>
+        <v>23644</v>
       </c>
       <c r="E106">
-        <v>51350513.16</v>
+        <v>56866163.95</v>
       </c>
       <c r="F106" t="s">
         <v>26</v>
@@ -2656,16 +2659,16 @@
         <v>17</v>
       </c>
       <c r="B109">
-        <v>4749964</v>
+        <v>4261517</v>
       </c>
       <c r="C109">
-        <v>13692141.36</v>
+        <v>14492485.73</v>
       </c>
       <c r="D109">
-        <v>446591339</v>
+        <v>541216779</v>
       </c>
       <c r="E109">
-        <v>1701638351.48</v>
+        <v>1993897091.6</v>
       </c>
       <c r="F109" t="s">
         <v>26</v>
@@ -2676,16 +2679,16 @@
         <v>6</v>
       </c>
       <c r="B110">
-        <v>34031</v>
+        <v>34840</v>
       </c>
       <c r="C110">
-        <v>3141616.02</v>
+        <v>3238320.38</v>
       </c>
       <c r="D110">
-        <v>3568972</v>
+        <v>4369103</v>
       </c>
       <c r="E110">
-        <v>306210458.59</v>
+        <v>388274069.06</v>
       </c>
       <c r="F110" t="s">
         <v>27</v>
@@ -2696,16 +2699,16 @@
         <v>7</v>
       </c>
       <c r="B111">
-        <v>27</v>
+        <v>125</v>
       </c>
       <c r="C111">
-        <v>91873.03</v>
+        <v>297988.37</v>
       </c>
       <c r="D111">
-        <v>12352</v>
+        <v>14100</v>
       </c>
       <c r="E111">
-        <v>28398463.36</v>
+        <v>32361998.85</v>
       </c>
       <c r="F111" t="s">
         <v>27</v>
@@ -2716,16 +2719,16 @@
         <v>8</v>
       </c>
       <c r="B112">
-        <v>27</v>
+        <v>240</v>
       </c>
       <c r="C112">
-        <v>1169.95</v>
+        <v>21986.3</v>
       </c>
       <c r="D112">
-        <v>8111</v>
+        <v>10872</v>
       </c>
       <c r="E112">
-        <v>483504.7</v>
+        <v>716529.2</v>
       </c>
       <c r="F112" t="s">
         <v>27</v>
@@ -2736,16 +2739,16 @@
         <v>9</v>
       </c>
       <c r="B113">
-        <v>2560</v>
+        <v>3320</v>
       </c>
       <c r="C113">
-        <v>884448.76</v>
+        <v>2625706.9</v>
       </c>
       <c r="D113">
-        <v>355157</v>
+        <v>416980</v>
       </c>
       <c r="E113">
-        <v>404652564.65</v>
+        <v>456444536.65</v>
       </c>
       <c r="F113" t="s">
         <v>27</v>
@@ -2756,16 +2759,16 @@
         <v>10</v>
       </c>
       <c r="B114">
-        <v>1701</v>
+        <v>2115</v>
       </c>
       <c r="C114">
-        <v>2364534.34</v>
+        <v>3571133.03</v>
       </c>
       <c r="D114">
-        <v>355441</v>
+        <v>396377</v>
       </c>
       <c r="E114">
-        <v>510936125.88</v>
+        <v>572464998.35</v>
       </c>
       <c r="F114" t="s">
         <v>27</v>
@@ -2776,16 +2779,16 @@
         <v>11</v>
       </c>
       <c r="B115">
-        <v>4532176</v>
+        <v>4422444</v>
       </c>
       <c r="C115">
-        <v>4755089.98</v>
+        <v>4441160.34</v>
       </c>
       <c r="D115">
-        <v>446800879</v>
+        <v>540400691</v>
       </c>
       <c r="E115">
-        <v>407477834.18</v>
+        <v>497290379.06</v>
       </c>
       <c r="F115" t="s">
         <v>27</v>
@@ -2796,16 +2799,16 @@
         <v>12</v>
       </c>
       <c r="B116">
-        <v>425</v>
+        <v>384</v>
       </c>
       <c r="C116">
-        <v>11757.24</v>
+        <v>16349.41</v>
       </c>
       <c r="D116">
-        <v>40270</v>
+        <v>48480</v>
       </c>
       <c r="E116">
-        <v>3379376.29</v>
+        <v>3691061.21</v>
       </c>
       <c r="F116" t="s">
         <v>27</v>
@@ -2836,16 +2839,16 @@
         <v>14</v>
       </c>
       <c r="B118">
-        <v>110</v>
+        <v>75</v>
       </c>
       <c r="C118">
-        <v>306472.79</v>
+        <v>189154.02</v>
       </c>
       <c r="D118">
-        <v>21214</v>
+        <v>23719</v>
       </c>
       <c r="E118">
-        <v>51656985.95</v>
+        <v>57055317.97</v>
       </c>
       <c r="F118" t="s">
         <v>27</v>
@@ -2896,16 +2899,16 @@
         <v>17</v>
       </c>
       <c r="B121">
-        <v>4571057</v>
+        <v>4463543</v>
       </c>
       <c r="C121">
-        <v>11556962.12</v>
+        <v>14401798.75</v>
       </c>
       <c r="D121">
-        <v>451162396</v>
+        <v>545680322</v>
       </c>
       <c r="E121">
-        <v>1713195313.6</v>
+        <v>2008298890.35</v>
       </c>
       <c r="F121" t="s">
         <v>27</v>
@@ -2916,16 +2919,16 @@
         <v>6</v>
       </c>
       <c r="B122">
-        <v>34823</v>
+        <v>31657</v>
       </c>
       <c r="C122">
-        <v>3423522.54</v>
+        <v>3187677.63</v>
       </c>
       <c r="D122">
-        <v>3603795</v>
+        <v>4400760</v>
       </c>
       <c r="E122">
-        <v>309633981.13</v>
+        <v>391461746.69</v>
       </c>
       <c r="F122" t="s">
         <v>28</v>
@@ -2936,16 +2939,16 @@
         <v>7</v>
       </c>
       <c r="B123">
-        <v>62</v>
+        <v>78</v>
       </c>
       <c r="C123">
-        <v>247133.95</v>
+        <v>159990.85</v>
       </c>
       <c r="D123">
-        <v>12414</v>
+        <v>14178</v>
       </c>
       <c r="E123">
-        <v>28645597.31</v>
+        <v>32521989.7</v>
       </c>
       <c r="F123" t="s">
         <v>28</v>
@@ -2956,16 +2959,16 @@
         <v>8</v>
       </c>
       <c r="B124">
-        <v>43</v>
+        <v>107</v>
       </c>
       <c r="C124">
-        <v>1974.18</v>
+        <v>8802.059999999999</v>
       </c>
       <c r="D124">
-        <v>8154</v>
+        <v>10979</v>
       </c>
       <c r="E124">
-        <v>485478.88</v>
+        <v>725331.26</v>
       </c>
       <c r="F124" t="s">
         <v>28</v>
@@ -2976,16 +2979,16 @@
         <v>9</v>
       </c>
       <c r="B125">
-        <v>4713</v>
+        <v>2740</v>
       </c>
       <c r="C125">
-        <v>3472777.04</v>
+        <v>1182298.16</v>
       </c>
       <c r="D125">
-        <v>359870</v>
+        <v>419720</v>
       </c>
       <c r="E125">
-        <v>408125341.69</v>
+        <v>457626834.81</v>
       </c>
       <c r="F125" t="s">
         <v>28</v>
@@ -2996,16 +2999,16 @@
         <v>10</v>
       </c>
       <c r="B126">
-        <v>2193</v>
+        <v>1677</v>
       </c>
       <c r="C126">
-        <v>3235845.07</v>
+        <v>2537420.94</v>
       </c>
       <c r="D126">
-        <v>357634</v>
+        <v>398054</v>
       </c>
       <c r="E126">
-        <v>514171970.95</v>
+        <v>575002419.29</v>
       </c>
       <c r="F126" t="s">
         <v>28</v>
@@ -3016,16 +3019,16 @@
         <v>11</v>
       </c>
       <c r="B127">
-        <v>4780185</v>
+        <v>4546432</v>
       </c>
       <c r="C127">
-        <v>4928400.74</v>
+        <v>4793384.46</v>
       </c>
       <c r="D127">
-        <v>451581064</v>
+        <v>544947123</v>
       </c>
       <c r="E127">
-        <v>412406234.92</v>
+        <v>502083763.52</v>
       </c>
       <c r="F127" t="s">
         <v>28</v>
@@ -3036,16 +3039,16 @@
         <v>12</v>
       </c>
       <c r="B128">
-        <v>223</v>
+        <v>349</v>
       </c>
       <c r="C128">
-        <v>7281.54</v>
+        <v>9590.85</v>
       </c>
       <c r="D128">
-        <v>40493</v>
+        <v>48829</v>
       </c>
       <c r="E128">
-        <v>3386657.83</v>
+        <v>3700652.06</v>
       </c>
       <c r="F128" t="s">
         <v>28</v>
@@ -3076,16 +3079,16 @@
         <v>14</v>
       </c>
       <c r="B130">
-        <v>116</v>
+        <v>103</v>
       </c>
       <c r="C130">
-        <v>373805.71</v>
+        <v>192488.98</v>
       </c>
       <c r="D130">
-        <v>21330</v>
+        <v>23822</v>
       </c>
       <c r="E130">
-        <v>52030791.65</v>
+        <v>57247806.94</v>
       </c>
       <c r="F130" t="s">
         <v>28</v>
@@ -3136,16 +3139,16 @@
         <v>17</v>
       </c>
       <c r="B133">
-        <v>4822358</v>
+        <v>4583143</v>
       </c>
       <c r="C133">
-        <v>15690740.76</v>
+        <v>12071653.92</v>
       </c>
       <c r="D133">
-        <v>455984754</v>
+        <v>550263465</v>
       </c>
       <c r="E133">
-        <v>1728886054.35</v>
+        <v>2020370544.28</v>
       </c>
       <c r="F133" t="s">
         <v>28</v>
@@ -3156,16 +3159,16 @@
         <v>6</v>
       </c>
       <c r="B134">
-        <v>41908</v>
+        <v>31742</v>
       </c>
       <c r="C134">
-        <v>4234857.4</v>
+        <v>3084855.23</v>
       </c>
       <c r="D134">
-        <v>3645703</v>
+        <v>4432502</v>
       </c>
       <c r="E134">
-        <v>313868838.53</v>
+        <v>394546601.91</v>
       </c>
       <c r="F134" t="s">
         <v>29</v>
@@ -3176,16 +3179,16 @@
         <v>7</v>
       </c>
       <c r="B135">
-        <v>104</v>
+        <v>82</v>
       </c>
       <c r="C135">
-        <v>301341.97</v>
+        <v>162798.68</v>
       </c>
       <c r="D135">
-        <v>12518</v>
+        <v>14260</v>
       </c>
       <c r="E135">
-        <v>28946939.27</v>
+        <v>32684788.38</v>
       </c>
       <c r="F135" t="s">
         <v>29</v>
@@ -3196,16 +3199,16 @@
         <v>8</v>
       </c>
       <c r="B136">
-        <v>19</v>
+        <v>394</v>
       </c>
       <c r="C136">
-        <v>1108.59</v>
+        <v>37812.43</v>
       </c>
       <c r="D136">
-        <v>8173</v>
+        <v>11373</v>
       </c>
       <c r="E136">
-        <v>486587.47</v>
+        <v>763143.6899999999</v>
       </c>
       <c r="F136" t="s">
         <v>29</v>
@@ -3216,16 +3219,16 @@
         <v>9</v>
       </c>
       <c r="B137">
-        <v>2740</v>
+        <v>4488</v>
       </c>
       <c r="C137">
-        <v>2523104.78</v>
+        <v>3288785.16</v>
       </c>
       <c r="D137">
-        <v>362610</v>
+        <v>424208</v>
       </c>
       <c r="E137">
-        <v>410648446.47</v>
+        <v>460915619.98</v>
       </c>
       <c r="F137" t="s">
         <v>29</v>
@@ -3236,16 +3239,16 @@
         <v>10</v>
       </c>
       <c r="B138">
-        <v>2095</v>
+        <v>2297</v>
       </c>
       <c r="C138">
-        <v>3260806.77</v>
+        <v>3458823.54</v>
       </c>
       <c r="D138">
-        <v>359729</v>
+        <v>400351</v>
       </c>
       <c r="E138">
-        <v>517432777.72</v>
+        <v>578461242.83</v>
       </c>
       <c r="F138" t="s">
         <v>29</v>
@@ -3256,16 +3259,16 @@
         <v>11</v>
       </c>
       <c r="B139">
-        <v>4900935</v>
+        <v>4125756</v>
       </c>
       <c r="C139">
-        <v>4866070.72</v>
+        <v>4012996.6</v>
       </c>
       <c r="D139">
-        <v>456481999</v>
+        <v>549072879</v>
       </c>
       <c r="E139">
-        <v>417272305.64</v>
+        <v>506096760.12</v>
       </c>
       <c r="F139" t="s">
         <v>29</v>
@@ -3276,16 +3279,16 @@
         <v>12</v>
       </c>
       <c r="B140">
-        <v>209</v>
+        <v>306</v>
       </c>
       <c r="C140">
-        <v>5476.12</v>
+        <v>13191.97</v>
       </c>
       <c r="D140">
-        <v>40702</v>
+        <v>49135</v>
       </c>
       <c r="E140">
-        <v>3392133.95</v>
+        <v>3713844.03</v>
       </c>
       <c r="F140" t="s">
         <v>29</v>
@@ -3316,16 +3319,16 @@
         <v>14</v>
       </c>
       <c r="B142">
-        <v>169</v>
+        <v>144</v>
       </c>
       <c r="C142">
-        <v>392143.68</v>
+        <v>441225.1</v>
       </c>
       <c r="D142">
-        <v>21499</v>
+        <v>23966</v>
       </c>
       <c r="E142">
-        <v>52422935.33</v>
+        <v>57689032.04</v>
       </c>
       <c r="F142" t="s">
         <v>29</v>
@@ -3376,16 +3379,16 @@
         <v>17</v>
       </c>
       <c r="B145">
-        <v>4948179</v>
+        <v>4165209</v>
       </c>
       <c r="C145">
-        <v>15584910.03</v>
+        <v>14500488.71</v>
       </c>
       <c r="D145">
-        <v>460932933</v>
+        <v>554428674</v>
       </c>
       <c r="E145">
-        <v>1744470964.39</v>
+        <v>2034871032.98</v>
       </c>
       <c r="F145" t="s">
         <v>29</v>
@@ -3396,16 +3399,16 @@
         <v>6</v>
       </c>
       <c r="B146">
-        <v>38521</v>
+        <v>33902</v>
       </c>
       <c r="C146">
-        <v>4135285.19</v>
+        <v>3062712.6</v>
       </c>
       <c r="D146">
-        <v>3684224</v>
+        <v>4466404</v>
       </c>
       <c r="E146">
-        <v>318004123.72</v>
+        <v>397609314.51</v>
       </c>
       <c r="F146" t="s">
         <v>30</v>
@@ -3416,16 +3419,16 @@
         <v>7</v>
       </c>
       <c r="B147">
-        <v>73</v>
+        <v>132</v>
       </c>
       <c r="C147">
-        <v>225710.55</v>
+        <v>434495.76</v>
       </c>
       <c r="D147">
-        <v>12591</v>
+        <v>14392</v>
       </c>
       <c r="E147">
-        <v>29172649.82</v>
+        <v>33119284.14</v>
       </c>
       <c r="F147" t="s">
         <v>30</v>
@@ -3436,16 +3439,16 @@
         <v>8</v>
       </c>
       <c r="B148">
-        <v>13</v>
+        <v>240</v>
       </c>
       <c r="C148">
-        <v>561.08</v>
+        <v>22443.33</v>
       </c>
       <c r="D148">
-        <v>8186</v>
+        <v>11613</v>
       </c>
       <c r="E148">
-        <v>487148.55</v>
+        <v>785587.02</v>
       </c>
       <c r="F148" t="s">
         <v>30</v>
@@ -3456,16 +3459,16 @@
         <v>9</v>
       </c>
       <c r="B149">
-        <v>3046</v>
+        <v>5568</v>
       </c>
       <c r="C149">
-        <v>2396492.05</v>
+        <v>4110083.18</v>
       </c>
       <c r="D149">
-        <v>365656</v>
+        <v>429776</v>
       </c>
       <c r="E149">
-        <v>413044938.52</v>
+        <v>465025703.15</v>
       </c>
       <c r="F149" t="s">
         <v>30</v>
@@ -3476,16 +3479,16 @@
         <v>10</v>
       </c>
       <c r="B150">
-        <v>2042</v>
+        <v>2346</v>
       </c>
       <c r="C150">
-        <v>3067038.35</v>
+        <v>3757785.2</v>
       </c>
       <c r="D150">
-        <v>361771</v>
+        <v>402697</v>
       </c>
       <c r="E150">
-        <v>520499816.07</v>
+        <v>582219028.03</v>
       </c>
       <c r="F150" t="s">
         <v>30</v>
@@ -3496,16 +3499,16 @@
         <v>11</v>
       </c>
       <c r="B151">
-        <v>4269827</v>
+        <v>4293855</v>
       </c>
       <c r="C151">
-        <v>4119644.58</v>
+        <v>4406412.99</v>
       </c>
       <c r="D151">
-        <v>460751826</v>
+        <v>553366734</v>
       </c>
       <c r="E151">
-        <v>421391950.23</v>
+        <v>510503173.11</v>
       </c>
       <c r="F151" t="s">
         <v>30</v>
@@ -3516,16 +3519,16 @@
         <v>12</v>
       </c>
       <c r="B152">
-        <v>211</v>
+        <v>439</v>
       </c>
       <c r="C152">
-        <v>28190.54</v>
+        <v>15180.15</v>
       </c>
       <c r="D152">
-        <v>40913</v>
+        <v>49574</v>
       </c>
       <c r="E152">
-        <v>3420324.49</v>
+        <v>3729024.18</v>
       </c>
       <c r="F152" t="s">
         <v>30</v>
@@ -3556,16 +3559,16 @@
         <v>14</v>
       </c>
       <c r="B154">
-        <v>154</v>
+        <v>120</v>
       </c>
       <c r="C154">
-        <v>378624.28</v>
+        <v>342094.25</v>
       </c>
       <c r="D154">
-        <v>21653</v>
+        <v>24086</v>
       </c>
       <c r="E154">
-        <v>52801559.62</v>
+        <v>58031126.29</v>
       </c>
       <c r="F154" t="s">
         <v>30</v>
@@ -3616,16 +3619,16 @@
         <v>17</v>
       </c>
       <c r="B157">
-        <v>4313887</v>
+        <v>4336602</v>
       </c>
       <c r="C157">
-        <v>14351546.63</v>
+        <v>16151207.45</v>
       </c>
       <c r="D157">
-        <v>465246820</v>
+        <v>558765276</v>
       </c>
       <c r="E157">
-        <v>1758822511.01</v>
+        <v>2051022240.43</v>
       </c>
       <c r="F157" t="s">
         <v>30</v>
@@ -3636,16 +3639,16 @@
         <v>6</v>
       </c>
       <c r="B158">
-        <v>57083</v>
+        <v>35020</v>
       </c>
       <c r="C158">
-        <v>6687136.81</v>
+        <v>3318968.71</v>
       </c>
       <c r="D158">
-        <v>3741307</v>
+        <v>4501424</v>
       </c>
       <c r="E158">
-        <v>324691260.53</v>
+        <v>400928283.22</v>
       </c>
       <c r="F158" t="s">
         <v>31</v>
@@ -3656,16 +3659,16 @@
         <v>7</v>
       </c>
       <c r="B159">
-        <v>129</v>
+        <v>80</v>
       </c>
       <c r="C159">
-        <v>278602.72</v>
+        <v>278631.05</v>
       </c>
       <c r="D159">
-        <v>12720</v>
+        <v>14472</v>
       </c>
       <c r="E159">
-        <v>29451252.54</v>
+        <v>33397915.19</v>
       </c>
       <c r="F159" t="s">
         <v>31</v>
@@ -3676,16 +3679,16 @@
         <v>8</v>
       </c>
       <c r="B160">
-        <v>55</v>
+        <v>90</v>
       </c>
       <c r="C160">
-        <v>3567.56</v>
+        <v>6594.9</v>
       </c>
       <c r="D160">
-        <v>8241</v>
+        <v>11703</v>
       </c>
       <c r="E160">
-        <v>490716.11</v>
+        <v>792181.92</v>
       </c>
       <c r="F160" t="s">
         <v>31</v>
@@ -3696,16 +3699,16 @@
         <v>9</v>
       </c>
       <c r="B161">
-        <v>2843</v>
+        <v>6502</v>
       </c>
       <c r="C161">
-        <v>2760501.47</v>
+        <v>3723352.89</v>
       </c>
       <c r="D161">
-        <v>368499</v>
+        <v>436278</v>
       </c>
       <c r="E161">
-        <v>415805439.99</v>
+        <v>468749056.05</v>
       </c>
       <c r="F161" t="s">
         <v>31</v>
@@ -3716,16 +3719,16 @@
         <v>10</v>
       </c>
       <c r="B162">
-        <v>2478</v>
+        <v>2521</v>
       </c>
       <c r="C162">
-        <v>3767529.35</v>
+        <v>3990669.82</v>
       </c>
       <c r="D162">
-        <v>364249</v>
+        <v>405218</v>
       </c>
       <c r="E162">
-        <v>524267345.42</v>
+        <v>586209697.85</v>
       </c>
       <c r="F162" t="s">
         <v>31</v>
@@ -3736,16 +3739,16 @@
         <v>11</v>
       </c>
       <c r="B163">
-        <v>4465849</v>
+        <v>4376826</v>
       </c>
       <c r="C163">
-        <v>4367591.85</v>
+        <v>4382249.59</v>
       </c>
       <c r="D163">
-        <v>465217675</v>
+        <v>557743560</v>
       </c>
       <c r="E163">
-        <v>425759542.08</v>
+        <v>514885422.7</v>
       </c>
       <c r="F163" t="s">
         <v>31</v>
@@ -3756,16 +3759,16 @@
         <v>12</v>
       </c>
       <c r="B164">
-        <v>341</v>
+        <v>509</v>
       </c>
       <c r="C164">
-        <v>13133.16</v>
+        <v>20340.77</v>
       </c>
       <c r="D164">
-        <v>41254</v>
+        <v>50083</v>
       </c>
       <c r="E164">
-        <v>3433457.66</v>
+        <v>3749364.95</v>
       </c>
       <c r="F164" t="s">
         <v>31</v>
@@ -3796,16 +3799,16 @@
         <v>14</v>
       </c>
       <c r="B166">
-        <v>111</v>
+        <v>187</v>
       </c>
       <c r="C166">
-        <v>333589.74</v>
+        <v>598959.9300000001</v>
       </c>
       <c r="D166">
-        <v>21764</v>
+        <v>24273</v>
       </c>
       <c r="E166">
-        <v>53135149.36</v>
+        <v>58630086.22</v>
       </c>
       <c r="F166" t="s">
         <v>31</v>
@@ -3856,16 +3859,16 @@
         <v>17</v>
       </c>
       <c r="B169">
-        <v>4528889</v>
+        <v>4421735</v>
       </c>
       <c r="C169">
-        <v>18211652.68</v>
+        <v>16319767.67</v>
       </c>
       <c r="D169">
-        <v>469775709</v>
+        <v>563187011</v>
       </c>
       <c r="E169">
-        <v>1777034163.69</v>
+        <v>2067342008.1</v>
       </c>
       <c r="F169" t="s">
         <v>31</v>
@@ -3876,16 +3879,16 @@
         <v>6</v>
       </c>
       <c r="B170">
-        <v>38793</v>
+        <v>29366</v>
       </c>
       <c r="C170">
-        <v>3539926.05</v>
+        <v>3047077.09</v>
       </c>
       <c r="D170">
-        <v>3780100</v>
+        <v>4530790</v>
       </c>
       <c r="E170">
-        <v>328231186.58</v>
+        <v>403975360.31</v>
       </c>
       <c r="F170" t="s">
         <v>32</v>
@@ -3896,16 +3899,16 @@
         <v>7</v>
       </c>
       <c r="B171">
-        <v>65</v>
+        <v>94</v>
       </c>
       <c r="C171">
-        <v>135671.06</v>
+        <v>302610.23</v>
       </c>
       <c r="D171">
-        <v>12785</v>
+        <v>14566</v>
       </c>
       <c r="E171">
-        <v>29586923.6</v>
+        <v>33700525.42</v>
       </c>
       <c r="F171" t="s">
         <v>32</v>
@@ -3916,16 +3919,16 @@
         <v>8</v>
       </c>
       <c r="B172">
-        <v>33</v>
+        <v>202</v>
       </c>
       <c r="C172">
-        <v>1380.08</v>
+        <v>17827.7</v>
       </c>
       <c r="D172">
-        <v>8274</v>
+        <v>11905</v>
       </c>
       <c r="E172">
-        <v>492096.19</v>
+        <v>810009.61</v>
       </c>
       <c r="F172" t="s">
         <v>32</v>
@@ -3936,16 +3939,16 @@
         <v>9</v>
       </c>
       <c r="B173">
-        <v>1123</v>
+        <v>7376</v>
       </c>
       <c r="C173">
-        <v>896887.5699999999</v>
+        <v>5479928.06</v>
       </c>
       <c r="D173">
-        <v>369622</v>
+        <v>443654</v>
       </c>
       <c r="E173">
-        <v>416702327.57</v>
+        <v>474228984.1</v>
       </c>
       <c r="F173" t="s">
         <v>32</v>
@@ -3956,16 +3959,16 @@
         <v>10</v>
       </c>
       <c r="B174">
-        <v>1965</v>
+        <v>2589</v>
       </c>
       <c r="C174">
-        <v>2976057.52</v>
+        <v>4794272.2</v>
       </c>
       <c r="D174">
-        <v>366214</v>
+        <v>407807</v>
       </c>
       <c r="E174">
-        <v>527243402.94</v>
+        <v>591003970.05</v>
       </c>
       <c r="F174" t="s">
         <v>32</v>
@@ -3976,16 +3979,16 @@
         <v>11</v>
       </c>
       <c r="B175">
-        <v>5068027</v>
+        <v>5463076</v>
       </c>
       <c r="C175">
-        <v>5113891.08</v>
+        <v>5881447.73</v>
       </c>
       <c r="D175">
-        <v>470285702</v>
+        <v>563206636</v>
       </c>
       <c r="E175">
-        <v>430873433.16</v>
+        <v>520766870.43</v>
       </c>
       <c r="F175" t="s">
         <v>32</v>
@@ -3999,13 +4002,13 @@
         <v>337</v>
       </c>
       <c r="C176">
-        <v>9231.52</v>
+        <v>17549.44</v>
       </c>
       <c r="D176">
-        <v>41591</v>
+        <v>50420</v>
       </c>
       <c r="E176">
-        <v>3442689.18</v>
+        <v>3766914.39</v>
       </c>
       <c r="F176" t="s">
         <v>32</v>
@@ -4036,16 +4039,16 @@
         <v>14</v>
       </c>
       <c r="B178">
-        <v>100</v>
+        <v>153</v>
       </c>
       <c r="C178">
-        <v>207104.96</v>
+        <v>366843.44</v>
       </c>
       <c r="D178">
-        <v>21864</v>
+        <v>24426</v>
       </c>
       <c r="E178">
-        <v>53342254.32</v>
+        <v>58996929.66</v>
       </c>
       <c r="F178" t="s">
         <v>32</v>
@@ -4096,16 +4099,16 @@
         <v>17</v>
       </c>
       <c r="B181">
-        <v>5110443</v>
+        <v>5503193</v>
       </c>
       <c r="C181">
-        <v>12880149.84</v>
+        <v>19907555.88</v>
       </c>
       <c r="D181">
-        <v>474886152</v>
+        <v>568690204</v>
       </c>
       <c r="E181">
-        <v>1789914313.54</v>
+        <v>2087249563.98</v>
       </c>
       <c r="F181" t="s">
         <v>32</v>
@@ -4116,16 +4119,16 @@
         <v>6</v>
       </c>
       <c r="B182">
-        <v>46226</v>
+        <v>28841</v>
       </c>
       <c r="C182">
-        <v>4504907.29</v>
+        <v>2556854.71</v>
       </c>
       <c r="D182">
-        <v>3826326</v>
+        <v>4559631</v>
       </c>
       <c r="E182">
-        <v>332736093.87</v>
+        <v>406532215.02</v>
       </c>
       <c r="F182" t="s">
         <v>33</v>
@@ -4136,16 +4139,16 @@
         <v>7</v>
       </c>
       <c r="B183">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="C183">
-        <v>135815.22</v>
+        <v>90671.87</v>
       </c>
       <c r="D183">
-        <v>12852</v>
+        <v>14628</v>
       </c>
       <c r="E183">
-        <v>29722738.82</v>
+        <v>33791197.29</v>
       </c>
       <c r="F183" t="s">
         <v>33</v>
@@ -4156,16 +4159,16 @@
         <v>8</v>
       </c>
       <c r="B184">
-        <v>55</v>
+        <v>270</v>
       </c>
       <c r="C184">
-        <v>3060.09</v>
+        <v>24845.01</v>
       </c>
       <c r="D184">
-        <v>8329</v>
+        <v>12175</v>
       </c>
       <c r="E184">
-        <v>495156.28</v>
+        <v>834854.62</v>
       </c>
       <c r="F184" t="s">
         <v>33</v>
@@ -4176,16 +4179,16 @@
         <v>9</v>
       </c>
       <c r="B185">
-        <v>2781</v>
+        <v>5214</v>
       </c>
       <c r="C185">
-        <v>3350238.66</v>
+        <v>2720109.83</v>
       </c>
       <c r="D185">
-        <v>372403</v>
+        <v>448868</v>
       </c>
       <c r="E185">
-        <v>420052566.22</v>
+        <v>476949093.93</v>
       </c>
       <c r="F185" t="s">
         <v>33</v>
@@ -4196,16 +4199,16 @@
         <v>10</v>
       </c>
       <c r="B186">
-        <v>2210</v>
+        <v>2333</v>
       </c>
       <c r="C186">
-        <v>3154006.2</v>
+        <v>4047315.36</v>
       </c>
       <c r="D186">
-        <v>368424</v>
+        <v>410140</v>
       </c>
       <c r="E186">
-        <v>530397409.13</v>
+        <v>595051285.41</v>
       </c>
       <c r="F186" t="s">
         <v>33</v>
@@ -4216,16 +4219,16 @@
         <v>11</v>
       </c>
       <c r="B187">
-        <v>4921894</v>
+        <v>4741293</v>
       </c>
       <c r="C187">
-        <v>4998138.56</v>
+        <v>4751450.75</v>
       </c>
       <c r="D187">
-        <v>475207596</v>
+        <v>567947929</v>
       </c>
       <c r="E187">
-        <v>435871571.71</v>
+        <v>525518321.18</v>
       </c>
       <c r="F187" t="s">
         <v>33</v>
@@ -4236,16 +4239,16 @@
         <v>12</v>
       </c>
       <c r="B188">
-        <v>1015</v>
+        <v>404</v>
       </c>
       <c r="C188">
-        <v>20249.35</v>
+        <v>12815.46</v>
       </c>
       <c r="D188">
-        <v>42606</v>
+        <v>50824</v>
       </c>
       <c r="E188">
-        <v>3462938.53</v>
+        <v>3779729.85</v>
       </c>
       <c r="F188" t="s">
         <v>33</v>
@@ -4276,16 +4279,16 @@
         <v>14</v>
       </c>
       <c r="B190">
-        <v>141</v>
+        <v>110</v>
       </c>
       <c r="C190">
-        <v>273802.26</v>
+        <v>453535.91</v>
       </c>
       <c r="D190">
-        <v>22005</v>
+        <v>24536</v>
       </c>
       <c r="E190">
-        <v>53616056.58</v>
+        <v>59450465.57</v>
       </c>
       <c r="F190" t="s">
         <v>33</v>
@@ -4336,16 +4339,16 @@
         <v>17</v>
       </c>
       <c r="B193">
-        <v>4974389</v>
+        <v>4778527</v>
       </c>
       <c r="C193">
-        <v>16440217.61</v>
+        <v>14657598.89</v>
       </c>
       <c r="D193">
-        <v>479860541</v>
+        <v>573468731</v>
       </c>
       <c r="E193">
-        <v>1806354531.15</v>
+        <v>2101907162.87</v>
       </c>
       <c r="F193" t="s">
         <v>33</v>
@@ -4356,16 +4359,16 @@
         <v>6</v>
       </c>
       <c r="B194">
-        <v>30584</v>
+        <v>36969</v>
       </c>
       <c r="C194">
-        <v>2775801.69</v>
+        <v>4053764.37</v>
       </c>
       <c r="D194">
-        <v>3856910</v>
+        <v>4596600</v>
       </c>
       <c r="E194">
-        <v>335511895.55</v>
+        <v>410585979.39</v>
       </c>
       <c r="F194" t="s">
         <v>34</v>
@@ -4376,16 +4379,16 @@
         <v>7</v>
       </c>
       <c r="B195">
-        <v>79</v>
+        <v>102</v>
       </c>
       <c r="C195">
-        <v>345670.48</v>
+        <v>228132.85</v>
       </c>
       <c r="D195">
-        <v>12931</v>
+        <v>14730</v>
       </c>
       <c r="E195">
-        <v>30068409.3</v>
+        <v>34019330.14</v>
       </c>
       <c r="F195" t="s">
         <v>34</v>
@@ -4396,16 +4399,16 @@
         <v>8</v>
       </c>
       <c r="B196">
-        <v>78</v>
+        <v>624</v>
       </c>
       <c r="C196">
-        <v>4619.15</v>
+        <v>57282.81</v>
       </c>
       <c r="D196">
-        <v>8407</v>
+        <v>12799</v>
       </c>
       <c r="E196">
-        <v>499775.43</v>
+        <v>892137.4300000001</v>
       </c>
       <c r="F196" t="s">
         <v>34</v>
@@ -4416,16 +4419,16 @@
         <v>9</v>
       </c>
       <c r="B197">
-        <v>3015</v>
+        <v>8783</v>
       </c>
       <c r="C197">
-        <v>3562553.06</v>
+        <v>6239148.8</v>
       </c>
       <c r="D197">
-        <v>375418</v>
+        <v>457651</v>
       </c>
       <c r="E197">
-        <v>423615119.28</v>
+        <v>483188242.73</v>
       </c>
       <c r="F197" t="s">
         <v>34</v>
@@ -4436,16 +4439,16 @@
         <v>10</v>
       </c>
       <c r="B198">
-        <v>2533</v>
+        <v>2691</v>
       </c>
       <c r="C198">
-        <v>3975539.88</v>
+        <v>4174247</v>
       </c>
       <c r="D198">
-        <v>370957</v>
+        <v>412831</v>
       </c>
       <c r="E198">
-        <v>534372949.01</v>
+        <v>599225532.41</v>
       </c>
       <c r="F198" t="s">
         <v>34</v>
@@ -4456,16 +4459,16 @@
         <v>11</v>
       </c>
       <c r="B199">
-        <v>4518380</v>
+        <v>4247470</v>
       </c>
       <c r="C199">
-        <v>4750345.61</v>
+        <v>4247547.27</v>
       </c>
       <c r="D199">
-        <v>479725976</v>
+        <v>572195399</v>
       </c>
       <c r="E199">
-        <v>440621917.32</v>
+        <v>529765868.46</v>
       </c>
       <c r="F199" t="s">
         <v>34</v>
@@ -4476,16 +4479,16 @@
         <v>12</v>
       </c>
       <c r="B200">
-        <v>286</v>
+        <v>126</v>
       </c>
       <c r="C200">
-        <v>12561.35</v>
+        <v>5771.79</v>
       </c>
       <c r="D200">
-        <v>42892</v>
+        <v>50950</v>
       </c>
       <c r="E200">
-        <v>3475499.88</v>
+        <v>3785501.64</v>
       </c>
       <c r="F200" t="s">
         <v>34</v>
@@ -4516,16 +4519,16 @@
         <v>14</v>
       </c>
       <c r="B202">
-        <v>134</v>
+        <v>178</v>
       </c>
       <c r="C202">
-        <v>282886.94</v>
+        <v>555550.62</v>
       </c>
       <c r="D202">
-        <v>22139</v>
+        <v>24714</v>
       </c>
       <c r="E202">
-        <v>53898943.53</v>
+        <v>60006016.19</v>
       </c>
       <c r="F202" t="s">
         <v>34</v>
@@ -4576,16 +4579,16 @@
         <v>17</v>
       </c>
       <c r="B205">
-        <v>4555089</v>
+        <v>4296943</v>
       </c>
       <c r="C205">
-        <v>15709978.15</v>
+        <v>19561445.52</v>
       </c>
       <c r="D205">
-        <v>484415630</v>
+        <v>577765674</v>
       </c>
       <c r="E205">
-        <v>1822064509.3</v>
+        <v>2121468608.39</v>
       </c>
       <c r="F205" t="s">
         <v>34</v>
@@ -4596,16 +4599,16 @@
         <v>6</v>
       </c>
       <c r="B206">
-        <v>28508</v>
+        <v>28579</v>
       </c>
       <c r="C206">
-        <v>2390350.1</v>
+        <v>2466916.35</v>
       </c>
       <c r="D206">
-        <v>3885418</v>
+        <v>4625179</v>
       </c>
       <c r="E206">
-        <v>337902245.65</v>
+        <v>413052895.74</v>
       </c>
       <c r="F206" t="s">
         <v>35</v>
@@ -4616,16 +4619,16 @@
         <v>7</v>
       </c>
       <c r="B207">
-        <v>61</v>
+        <v>105</v>
       </c>
       <c r="C207">
-        <v>217550.61</v>
+        <v>384229.65</v>
       </c>
       <c r="D207">
-        <v>12992</v>
+        <v>14835</v>
       </c>
       <c r="E207">
-        <v>30285959.91</v>
+        <v>34403559.79</v>
       </c>
       <c r="F207" t="s">
         <v>35</v>
@@ -4636,16 +4639,16 @@
         <v>8</v>
       </c>
       <c r="B208">
-        <v>46</v>
+        <v>122</v>
       </c>
       <c r="C208">
-        <v>2516.6</v>
+        <v>11085.05</v>
       </c>
       <c r="D208">
-        <v>8453</v>
+        <v>12921</v>
       </c>
       <c r="E208">
-        <v>502292.03</v>
+        <v>903222.48</v>
       </c>
       <c r="F208" t="s">
         <v>35</v>
@@ -4656,16 +4659,16 @@
         <v>9</v>
       </c>
       <c r="B209">
-        <v>3218</v>
+        <v>7978</v>
       </c>
       <c r="C209">
-        <v>3106879.57</v>
+        <v>4472521.79</v>
       </c>
       <c r="D209">
-        <v>378636</v>
+        <v>465629</v>
       </c>
       <c r="E209">
-        <v>426721998.85</v>
+        <v>487660764.52</v>
       </c>
       <c r="F209" t="s">
         <v>35</v>
@@ -4676,16 +4679,16 @@
         <v>10</v>
       </c>
       <c r="B210">
-        <v>2571</v>
+        <v>2714</v>
       </c>
       <c r="C210">
-        <v>4271715.38</v>
+        <v>5045498.34</v>
       </c>
       <c r="D210">
-        <v>373528</v>
+        <v>415545</v>
       </c>
       <c r="E210">
-        <v>538644664.39</v>
+        <v>604271030.75</v>
       </c>
       <c r="F210" t="s">
         <v>35</v>
@@ -4696,16 +4699,16 @@
         <v>11</v>
       </c>
       <c r="B211">
-        <v>5817889</v>
+        <v>4504206</v>
       </c>
       <c r="C211">
-        <v>5622888</v>
+        <v>4564205</v>
       </c>
       <c r="D211">
-        <v>485543865</v>
+        <v>576699605</v>
       </c>
       <c r="E211">
-        <v>446244805.32</v>
+        <v>534330073.46</v>
       </c>
       <c r="F211" t="s">
         <v>35</v>
@@ -4716,16 +4719,16 @@
         <v>12</v>
       </c>
       <c r="B212">
-        <v>555</v>
+        <v>455</v>
       </c>
       <c r="C212">
-        <v>42358.1</v>
+        <v>16432.52</v>
       </c>
       <c r="D212">
-        <v>43447</v>
+        <v>51405</v>
       </c>
       <c r="E212">
-        <v>3517857.98</v>
+        <v>3801934.16</v>
       </c>
       <c r="F212" t="s">
         <v>35</v>
@@ -4756,16 +4759,16 @@
         <v>14</v>
       </c>
       <c r="B214">
-        <v>150</v>
+        <v>185</v>
       </c>
       <c r="C214">
-        <v>338478.97</v>
+        <v>596936.29</v>
       </c>
       <c r="D214">
-        <v>22289</v>
+        <v>24899</v>
       </c>
       <c r="E214">
-        <v>54237422.5</v>
+        <v>60602952.48</v>
       </c>
       <c r="F214" t="s">
         <v>35</v>
@@ -4816,16 +4819,16 @@
         <v>17</v>
       </c>
       <c r="B217">
-        <v>5852998</v>
+        <v>4544344</v>
       </c>
       <c r="C217">
-        <v>15992737.33</v>
+        <v>17557824.99</v>
       </c>
       <c r="D217">
-        <v>490268628</v>
+        <v>582310018</v>
       </c>
       <c r="E217">
-        <v>1838057246.64</v>
+        <v>2139026433.39</v>
       </c>
       <c r="F217" t="s">
         <v>35</v>
@@ -4836,16 +4839,16 @@
         <v>6</v>
       </c>
       <c r="B218">
-        <v>30211</v>
+        <v>23958</v>
       </c>
       <c r="C218">
-        <v>2874575.95</v>
+        <v>2169218.34</v>
       </c>
       <c r="D218">
-        <v>3915629</v>
+        <v>4649137</v>
       </c>
       <c r="E218">
-        <v>340776821.61</v>
+        <v>415222114.08</v>
       </c>
       <c r="F218" t="s">
         <v>36</v>
@@ -4856,16 +4859,16 @@
         <v>7</v>
       </c>
       <c r="B219">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="C219">
-        <v>249923.32</v>
+        <v>248783.21</v>
       </c>
       <c r="D219">
-        <v>13053</v>
+        <v>14889</v>
       </c>
       <c r="E219">
-        <v>30535883.24</v>
+        <v>34652343</v>
       </c>
       <c r="F219" t="s">
         <v>36</v>
@@ -4876,16 +4879,16 @@
         <v>8</v>
       </c>
       <c r="B220">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="C220">
-        <v>3006.19</v>
+        <v>2182.36</v>
       </c>
       <c r="D220">
-        <v>8493</v>
+        <v>12965</v>
       </c>
       <c r="E220">
-        <v>505298.22</v>
+        <v>905404.84</v>
       </c>
       <c r="F220" t="s">
         <v>36</v>
@@ -4896,16 +4899,16 @@
         <v>9</v>
       </c>
       <c r="B221">
-        <v>4905</v>
+        <v>6337</v>
       </c>
       <c r="C221">
-        <v>3302097.43</v>
+        <v>4343575.71</v>
       </c>
       <c r="D221">
-        <v>383541</v>
+        <v>471966</v>
       </c>
       <c r="E221">
-        <v>430024096.28</v>
+        <v>492004340.23</v>
       </c>
       <c r="F221" t="s">
         <v>36</v>
@@ -4916,16 +4919,16 @@
         <v>10</v>
       </c>
       <c r="B222">
-        <v>2468</v>
+        <v>2725</v>
       </c>
       <c r="C222">
-        <v>4061372.27</v>
+        <v>4621927.47</v>
       </c>
       <c r="D222">
-        <v>375996</v>
+        <v>418270</v>
       </c>
       <c r="E222">
-        <v>542706036.66</v>
+        <v>608892958.21</v>
       </c>
       <c r="F222" t="s">
         <v>36</v>
@@ -4936,16 +4939,16 @@
         <v>11</v>
       </c>
       <c r="B223">
-        <v>6528673</v>
+        <v>4960585</v>
       </c>
       <c r="C223">
-        <v>6175805.77</v>
+        <v>5347175.93</v>
       </c>
       <c r="D223">
-        <v>492072538</v>
+        <v>581660190</v>
       </c>
       <c r="E223">
-        <v>452420611.09</v>
+        <v>539677249.39</v>
       </c>
       <c r="F223" t="s">
         <v>36</v>
@@ -4956,16 +4959,16 @@
         <v>12</v>
       </c>
       <c r="B224">
-        <v>974</v>
+        <v>291</v>
       </c>
       <c r="C224">
-        <v>38484.93</v>
+        <v>26998.93</v>
       </c>
       <c r="D224">
-        <v>44421</v>
+        <v>51696</v>
       </c>
       <c r="E224">
-        <v>3556342.91</v>
+        <v>3828933.09</v>
       </c>
       <c r="F224" t="s">
         <v>36</v>
@@ -4996,16 +4999,16 @@
         <v>14</v>
       </c>
       <c r="B226">
-        <v>126</v>
+        <v>148</v>
       </c>
       <c r="C226">
-        <v>252602.33</v>
+        <v>472678.91</v>
       </c>
       <c r="D226">
-        <v>22415</v>
+        <v>25047</v>
       </c>
       <c r="E226">
-        <v>54490024.83</v>
+        <v>61075631.39</v>
       </c>
       <c r="F226" t="s">
         <v>36</v>
@@ -5056,16 +5059,16 @@
         <v>17</v>
       </c>
       <c r="B229">
-        <v>6567458</v>
+        <v>4994142</v>
       </c>
       <c r="C229">
-        <v>16957868.19</v>
+        <v>17232540.86</v>
       </c>
       <c r="D229">
-        <v>496836086</v>
+        <v>587304160</v>
       </c>
       <c r="E229">
-        <v>1855015114.82</v>
+        <v>2156258974.25</v>
       </c>
       <c r="F229" t="s">
         <v>36</v>
@@ -5076,16 +5079,16 @@
         <v>6</v>
       </c>
       <c r="B230">
-        <v>33719</v>
+        <v>24729</v>
       </c>
       <c r="C230">
-        <v>3281076.52</v>
+        <v>2198658.46</v>
       </c>
       <c r="D230">
-        <v>3949348</v>
+        <v>4673866</v>
       </c>
       <c r="E230">
-        <v>344057898.13</v>
+        <v>417420772.54</v>
       </c>
       <c r="F230" t="s">
         <v>37</v>
@@ -5096,16 +5099,16 @@
         <v>7</v>
       </c>
       <c r="B231">
-        <v>122</v>
+        <v>105</v>
       </c>
       <c r="C231">
-        <v>286340.59</v>
+        <v>348937.73</v>
       </c>
       <c r="D231">
-        <v>13175</v>
+        <v>14994</v>
       </c>
       <c r="E231">
-        <v>30822223.83</v>
+        <v>35001280.73</v>
       </c>
       <c r="F231" t="s">
         <v>37</v>
@@ -5116,16 +5119,16 @@
         <v>8</v>
       </c>
       <c r="B232">
-        <v>32</v>
+        <v>103</v>
       </c>
       <c r="C232">
-        <v>804.49</v>
+        <v>6940.98</v>
       </c>
       <c r="D232">
-        <v>8525</v>
+        <v>13068</v>
       </c>
       <c r="E232">
-        <v>506102.7</v>
+        <v>912345.8199999999</v>
       </c>
       <c r="F232" t="s">
         <v>37</v>
@@ -5136,16 +5139,16 @@
         <v>9</v>
       </c>
       <c r="B233">
-        <v>1782</v>
+        <v>4709</v>
       </c>
       <c r="C233">
-        <v>918928.13</v>
+        <v>4852182.14</v>
       </c>
       <c r="D233">
-        <v>385323</v>
+        <v>476675</v>
       </c>
       <c r="E233">
-        <v>430943024.41</v>
+        <v>496856522.37</v>
       </c>
       <c r="F233" t="s">
         <v>37</v>
@@ -5156,16 +5159,16 @@
         <v>10</v>
       </c>
       <c r="B234">
-        <v>1690</v>
+        <v>2720</v>
       </c>
       <c r="C234">
-        <v>2251416.35</v>
+        <v>4363869.91</v>
       </c>
       <c r="D234">
-        <v>377686</v>
+        <v>420990</v>
       </c>
       <c r="E234">
-        <v>544957453.01</v>
+        <v>613256828.13</v>
       </c>
       <c r="F234" t="s">
         <v>37</v>
@@ -5176,16 +5179,16 @@
         <v>11</v>
       </c>
       <c r="B235">
-        <v>5507352</v>
+        <v>4233974</v>
       </c>
       <c r="C235">
-        <v>5250335.28</v>
+        <v>4322040.41</v>
       </c>
       <c r="D235">
-        <v>497579890</v>
+        <v>585894164</v>
       </c>
       <c r="E235">
-        <v>457670946.36</v>
+        <v>543999289.8</v>
       </c>
       <c r="F235" t="s">
         <v>37</v>
@@ -5196,16 +5199,16 @@
         <v>12</v>
       </c>
       <c r="B236">
-        <v>812</v>
+        <v>333</v>
       </c>
       <c r="C236">
-        <v>21257.78</v>
+        <v>23633.04</v>
       </c>
       <c r="D236">
-        <v>45233</v>
+        <v>52029</v>
       </c>
       <c r="E236">
-        <v>3577600.68</v>
+        <v>3852566.13</v>
       </c>
       <c r="F236" t="s">
         <v>37</v>
@@ -5236,16 +5239,16 @@
         <v>14</v>
       </c>
       <c r="B238">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C238">
-        <v>315692.52</v>
+        <v>776756.64</v>
       </c>
       <c r="D238">
-        <v>22573</v>
+        <v>25203</v>
       </c>
       <c r="E238">
-        <v>54805717.35</v>
+        <v>61852388.03</v>
       </c>
       <c r="F238" t="s">
         <v>37</v>
@@ -5296,19 +5299,259 @@
         <v>17</v>
       </c>
       <c r="B241">
-        <v>5545667</v>
+        <v>4266829</v>
       </c>
       <c r="C241">
-        <v>12325851.65</v>
+        <v>16893019.32</v>
       </c>
       <c r="D241">
-        <v>502381753</v>
+        <v>591570989</v>
       </c>
       <c r="E241">
-        <v>1867340966.47</v>
+        <v>2173151993.57</v>
       </c>
       <c r="F241" t="s">
         <v>37</v>
+      </c>
+    </row>
+    <row r="242" spans="1:6">
+      <c r="A242" t="s">
+        <v>6</v>
+      </c>
+      <c r="B242">
+        <v>16355</v>
+      </c>
+      <c r="C242">
+        <v>1342887.59</v>
+      </c>
+      <c r="D242">
+        <v>4690221</v>
+      </c>
+      <c r="E242">
+        <v>418763660.13</v>
+      </c>
+      <c r="F242" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="243" spans="1:6">
+      <c r="A243" t="s">
+        <v>7</v>
+      </c>
+      <c r="B243">
+        <v>94</v>
+      </c>
+      <c r="C243">
+        <v>274978.48</v>
+      </c>
+      <c r="D243">
+        <v>15088</v>
+      </c>
+      <c r="E243">
+        <v>35276259.21</v>
+      </c>
+      <c r="F243" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="244" spans="1:6">
+      <c r="A244" t="s">
+        <v>8</v>
+      </c>
+      <c r="B244">
+        <v>189</v>
+      </c>
+      <c r="C244">
+        <v>13511.02</v>
+      </c>
+      <c r="D244">
+        <v>13257</v>
+      </c>
+      <c r="E244">
+        <v>925856.84</v>
+      </c>
+      <c r="F244" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="245" spans="1:6">
+      <c r="A245" t="s">
+        <v>9</v>
+      </c>
+      <c r="B245">
+        <v>3665</v>
+      </c>
+      <c r="C245">
+        <v>2217039.07</v>
+      </c>
+      <c r="D245">
+        <v>480340</v>
+      </c>
+      <c r="E245">
+        <v>499073561.44</v>
+      </c>
+      <c r="F245" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="246" spans="1:6">
+      <c r="A246" t="s">
+        <v>10</v>
+      </c>
+      <c r="B246">
+        <v>2784</v>
+      </c>
+      <c r="C246">
+        <v>4646234.34</v>
+      </c>
+      <c r="D246">
+        <v>423774</v>
+      </c>
+      <c r="E246">
+        <v>617903062.47</v>
+      </c>
+      <c r="F246" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="247" spans="1:6">
+      <c r="A247" t="s">
+        <v>11</v>
+      </c>
+      <c r="B247">
+        <v>4490818</v>
+      </c>
+      <c r="C247">
+        <v>4584973.17</v>
+      </c>
+      <c r="D247">
+        <v>590384982</v>
+      </c>
+      <c r="E247">
+        <v>548584262.97</v>
+      </c>
+      <c r="F247" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="248" spans="1:6">
+      <c r="A248" t="s">
+        <v>12</v>
+      </c>
+      <c r="B248">
+        <v>718</v>
+      </c>
+      <c r="C248">
+        <v>29995.08</v>
+      </c>
+      <c r="D248">
+        <v>52747</v>
+      </c>
+      <c r="E248">
+        <v>3882561.22</v>
+      </c>
+      <c r="F248" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="249" spans="1:6">
+      <c r="A249" t="s">
+        <v>13</v>
+      </c>
+      <c r="B249">
+        <v>0</v>
+      </c>
+      <c r="C249">
+        <v>0</v>
+      </c>
+      <c r="D249">
+        <v>0</v>
+      </c>
+      <c r="E249">
+        <v>0</v>
+      </c>
+      <c r="F249" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="250" spans="1:6">
+      <c r="A250" t="s">
+        <v>14</v>
+      </c>
+      <c r="B250">
+        <v>232</v>
+      </c>
+      <c r="C250">
+        <v>830639.7</v>
+      </c>
+      <c r="D250">
+        <v>25435</v>
+      </c>
+      <c r="E250">
+        <v>62683027.73</v>
+      </c>
+      <c r="F250" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="251" spans="1:6">
+      <c r="A251" t="s">
+        <v>15</v>
+      </c>
+      <c r="B251">
+        <v>0</v>
+      </c>
+      <c r="C251">
+        <v>0</v>
+      </c>
+      <c r="D251">
+        <v>0</v>
+      </c>
+      <c r="E251">
+        <v>0</v>
+      </c>
+      <c r="F251" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="252" spans="1:6">
+      <c r="A252" t="s">
+        <v>16</v>
+      </c>
+      <c r="B252">
+        <v>0</v>
+      </c>
+      <c r="C252">
+        <v>0</v>
+      </c>
+      <c r="D252">
+        <v>0</v>
+      </c>
+      <c r="E252">
+        <v>0</v>
+      </c>
+      <c r="F252" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="253" spans="1:6">
+      <c r="A253" t="s">
+        <v>17</v>
+      </c>
+      <c r="B253">
+        <v>4514855</v>
+      </c>
+      <c r="C253">
+        <v>13940258.43</v>
+      </c>
+      <c r="D253">
+        <v>596085844</v>
+      </c>
+      <c r="E253">
+        <v>2187092252</v>
+      </c>
+      <c r="F253" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>
